--- a/requirements/updated_user_story.xlsx
+++ b/requirements/updated_user_story.xlsx
@@ -211,7 +211,7 @@
     <t xml:space="preserve">(Given)Every product must assign to it's related category.(When)product shuld take a spicific type. (Then) all product shuld organized by it's own categories and types </t>
   </si>
   <si>
-    <t xml:space="preserve">locaiton</t>
+    <t xml:space="preserve">location</t>
   </si>
   <si>
     <t xml:space="preserve">save my product location</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">customer </t>
   </si>
   <si>
-    <t xml:space="preserve">suggest my idea to develoopers</t>
+    <t xml:space="preserve">suggest my idea to developers</t>
   </si>
   <si>
     <t xml:space="preserve">I can help developers to sovle their probloms and add more functionlity to app</t>
@@ -728,7 +728,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -865,10 +865,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -990,7 +986,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1024,7 +1020,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1053,14 +1049,14 @@
             <a:solidFill>
               <a:srgbClr val="4472c4"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="square"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1080,12 +1076,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1153,14 +1144,14 @@
             <a:solidFill>
               <a:srgbClr val="ed7d31"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="square"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1180,12 +1171,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1234,17 +1220,17 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="89957366"/>
-        <c:axId val="56716121"/>
+        <c:axId val="75103984"/>
+        <c:axId val="7952357"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89957366"/>
+        <c:axId val="75103984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1270,7 +1256,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56716121"/>
+        <c:crossAx val="7952357"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1278,7 +1264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56716121"/>
+        <c:axId val="7952357"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,13 +1303,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89957366"/>
+        <c:crossAx val="75103984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1333,7 +1319,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1369,7 +1355,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1403,7 +1389,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1420,7 +1406,7 @@
             <a:solidFill>
               <a:srgbClr val="4472c4"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="22320">
+            <a:ln w="22320">
               <a:solidFill>
                 <a:srgbClr val="4472c4"/>
               </a:solidFill>
@@ -1433,7 +1419,7 @@
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
-              <a:bodyPr wrap="square"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1453,12 +1439,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1541,17 +1522,17 @@
         </c:ser>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="98005637"/>
-        <c:axId val="11911468"/>
+        <c:axId val="16824499"/>
+        <c:axId val="26028855"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98005637"/>
+        <c:axId val="16824499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,7 +1562,7 @@
             </a:ln>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1607,7 +1588,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11911468"/>
+        <c:crossAx val="26028855"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,7 +1596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11911468"/>
+        <c:axId val="26028855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,7 +1637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98005637"/>
+        <c:crossAx val="16824499"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,7 +1650,7 @@
             <a:srgbClr val="ffffff"/>
           </a:bgClr>
         </a:pattFill>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1691,7 +1672,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1725,7 +1706,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1742,7 +1723,7 @@
             <a:solidFill>
               <a:srgbClr val="4472c4"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="22320">
+            <a:ln w="22320">
               <a:solidFill>
                 <a:srgbClr val="4472c4"/>
               </a:solidFill>
@@ -1755,7 +1736,7 @@
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
-              <a:bodyPr wrap="square"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1775,12 +1756,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1863,17 +1839,17 @@
         </c:ser>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="35430290"/>
-        <c:axId val="42454087"/>
+        <c:axId val="30315224"/>
+        <c:axId val="11911715"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35430290"/>
+        <c:axId val="30315224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1879,7 @@
             </a:ln>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1929,7 +1905,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42454087"/>
+        <c:crossAx val="11911715"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1937,7 +1913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42454087"/>
+        <c:axId val="11911715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,7 +1954,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35430290"/>
+        <c:crossAx val="30315224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1991,7 +1967,7 @@
             <a:srgbClr val="ffffff"/>
           </a:bgClr>
         </a:pattFill>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -2024,9 +2000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>2018880</xdr:colOff>
+      <xdr:colOff>2018520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2039,13 +2015,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18780480" y="9360"/>
-          <a:ext cx="1037880" cy="1037880"/>
+          <a:off x="15124680" y="9360"/>
+          <a:ext cx="1037520" cy="1037520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -2082,9 +2058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28080</xdr:colOff>
+      <xdr:colOff>27720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2092,8 +2068,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="507600" y="1333440"/>
-        <a:ext cx="5523120" cy="2895120"/>
+        <a:off x="413280" y="1333440"/>
+        <a:ext cx="4384440" cy="2894760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2111,10 +2087,10 @@
       <xdr:rowOff>114120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>599760</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>48960</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2122,8 +2098,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="479160" y="5047920"/>
-        <a:ext cx="5430240" cy="3133440"/>
+        <a:off x="384840" y="5047920"/>
+        <a:ext cx="4434120" cy="3133080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2135,16 +2111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39960</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>561600</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2152,8 +2128,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6593040" y="5019480"/>
-        <a:ext cx="5513400" cy="3133440"/>
+        <a:off x="5360400" y="5019480"/>
+        <a:ext cx="4375080" cy="3133080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2178,17 +2154,17 @@
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.86"/>
   </cols>
@@ -2671,8 +2647,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2690,25 +2666,25 @@
   <dimension ref="B5:R28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="22" width="33.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="21" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="14.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="40.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="40.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="32.71"/>
   </cols>
   <sheetData>
@@ -3137,7 +3113,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="n">
         <v>10</v>
       </c>
@@ -3313,13 +3289,13 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="34" t="n">
+      <c r="B28" s="32" t="n">
         <v>16</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="32" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="33" t="s">
@@ -3338,8 +3314,8 @@
     <mergeCell ref="B21:H21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3360,14 +3336,14 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="11.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="10" style="0" width="3.71"/>
   </cols>
   <sheetData>
@@ -3375,13 +3351,13 @@
       <c r="B5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="J5" s="34"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
-      <c r="J6" s="35"/>
-      <c r="N6" s="35" t="s">
+      <c r="J6" s="34"/>
+      <c r="N6" s="34" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3410,34 +3386,34 @@
       <c r="I7" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="Q7" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="S7" s="36" t="s">
+      <c r="S7" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3451,31 +3427,31 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="37" t="n">
+      <c r="G8" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="H8" s="38" t="n">
+      <c r="H8" s="37" t="n">
         <f aca="false">SUM(J8:S8)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="38" t="n">
+      <c r="I8" s="37" t="n">
         <f aca="false">G8-H8</f>
         <v>6</v>
       </c>
-      <c r="J8" s="37" t="n">
+      <c r="J8" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37" t="n">
+      <c r="K8" s="36"/>
+      <c r="L8" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="n">
@@ -3487,29 +3463,29 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="37" t="n">
+      <c r="G9" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="38" t="n">
+      <c r="H9" s="37" t="n">
         <f aca="false">SUM(J9:S9)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="38" t="n">
+      <c r="I9" s="37" t="n">
         <f aca="false">G9-H9</f>
         <v>1</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37" t="n">
+      <c r="J9" s="36"/>
+      <c r="K9" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="n">
@@ -3521,35 +3497,35 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="37" t="n">
+      <c r="G10" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="38" t="n">
+      <c r="H10" s="37" t="n">
         <f aca="false">SUM(J10:S10)</f>
         <v>5</v>
       </c>
-      <c r="I10" s="38" t="n">
+      <c r="I10" s="37" t="n">
         <f aca="false">G10-H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37" t="n">
+      <c r="J10" s="36"/>
+      <c r="K10" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37" t="n">
+      <c r="L10" s="36"/>
+      <c r="M10" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37" t="n">
+      <c r="N10" s="36"/>
+      <c r="O10" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="P10" s="37" t="n">
+      <c r="P10" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="n">
@@ -3561,33 +3537,33 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="37" t="n">
+      <c r="G11" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="38" t="n">
+      <c r="H11" s="37" t="n">
         <f aca="false">SUM(J11:S11)</f>
         <v>3</v>
       </c>
-      <c r="I11" s="38" t="n">
+      <c r="I11" s="37" t="n">
         <f aca="false">G11-H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37" t="n">
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37" t="n">
+      <c r="M11" s="36"/>
+      <c r="N11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37" t="n">
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="n">
@@ -3599,45 +3575,45 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="37" t="n">
+      <c r="G12" s="36" t="n">
         <v>13</v>
       </c>
-      <c r="H12" s="38" t="n">
+      <c r="H12" s="37" t="n">
         <f aca="false">SUM(J12:S12)</f>
         <v>13</v>
       </c>
-      <c r="I12" s="38" t="n">
+      <c r="I12" s="37" t="n">
         <f aca="false">G12-H12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="37" t="n">
+      <c r="J12" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="37" t="n">
+      <c r="K12" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="L12" s="37" t="n">
+      <c r="L12" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="M12" s="37" t="n">
+      <c r="M12" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="37" t="n">
+      <c r="N12" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="37" t="n">
+      <c r="O12" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="P12" s="37" t="n">
+      <c r="P12" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="37" t="n">
+      <c r="Q12" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="37" t="n">
+      <c r="R12" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="S12" s="37" t="n">
+      <c r="S12" s="36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,27 +3627,27 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="37" t="n">
+      <c r="G13" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="38" t="n">
+      <c r="H13" s="37" t="n">
         <f aca="false">SUM(J13:S13)</f>
         <v>1</v>
       </c>
-      <c r="I13" s="38" t="n">
+      <c r="I13" s="37" t="n">
         <f aca="false">G13-H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37" t="n">
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3681,25 +3657,25 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38" t="n">
+      <c r="G14" s="36"/>
+      <c r="H14" s="37" t="n">
         <f aca="false">SUM(J14:S14)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="38" t="n">
+      <c r="I14" s="37" t="n">
         <f aca="false">G14-H14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="3"/>
@@ -3707,25 +3683,25 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38" t="n">
+      <c r="G15" s="36"/>
+      <c r="H15" s="37" t="n">
         <f aca="false">SUM(J15:S15)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="38" t="n">
+      <c r="I15" s="37" t="n">
         <f aca="false">G15-H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
@@ -3733,25 +3709,25 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38" t="n">
+      <c r="G16" s="36"/>
+      <c r="H16" s="37" t="n">
         <f aca="false">SUM(J16:S16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="38" t="n">
+      <c r="I16" s="37" t="n">
         <f aca="false">G16-H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
@@ -3759,25 +3735,25 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38" t="n">
+      <c r="G17" s="36"/>
+      <c r="H17" s="37" t="n">
         <f aca="false">SUM(J17:S17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="38" t="n">
+      <c r="I17" s="37" t="n">
         <f aca="false">G17-H17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3"/>
@@ -3785,25 +3761,25 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38" t="n">
+      <c r="G18" s="36"/>
+      <c r="H18" s="37" t="n">
         <f aca="false">SUM(J18:S18)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="38" t="n">
+      <c r="I18" s="37" t="n">
         <f aca="false">G18-H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="3"/>
@@ -3811,25 +3787,25 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38" t="n">
+      <c r="G19" s="36"/>
+      <c r="H19" s="37" t="n">
         <f aca="false">SUM(J19:S19)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="38" t="n">
+      <c r="I19" s="37" t="n">
         <f aca="false">G19-H19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3"/>
@@ -3837,25 +3813,25 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38" t="n">
+      <c r="G20" s="36"/>
+      <c r="H20" s="37" t="n">
         <f aca="false">SUM(J20:S20)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="38" t="n">
+      <c r="I20" s="37" t="n">
         <f aca="false">G20-H20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3"/>
@@ -3863,25 +3839,25 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38" t="n">
+      <c r="G21" s="36"/>
+      <c r="H21" s="37" t="n">
         <f aca="false">SUM(J21:S21)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="38" t="n">
+      <c r="I21" s="37" t="n">
         <f aca="false">G21-H21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3"/>
@@ -3889,25 +3865,25 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38" t="n">
+      <c r="G22" s="36"/>
+      <c r="H22" s="37" t="n">
         <f aca="false">SUM(J22:S22)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="38" t="n">
+      <c r="I22" s="37" t="n">
         <f aca="false">G22-H22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3"/>
@@ -3915,25 +3891,25 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38" t="n">
+      <c r="G23" s="36"/>
+      <c r="H23" s="37" t="n">
         <f aca="false">SUM(J23:S23)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="38" t="n">
+      <c r="I23" s="37" t="n">
         <f aca="false">G23-H23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3"/>
@@ -3941,25 +3917,25 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38" t="n">
+      <c r="G24" s="36"/>
+      <c r="H24" s="37" t="n">
         <f aca="false">SUM(J24:S24)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="38" t="n">
+      <c r="I24" s="37" t="n">
         <f aca="false">G24-H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3"/>
@@ -3967,25 +3943,25 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38" t="n">
+      <c r="G25" s="36"/>
+      <c r="H25" s="37" t="n">
         <f aca="false">SUM(J25:S25)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="38" t="n">
+      <c r="I25" s="37" t="n">
         <f aca="false">G25-H25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3"/>
@@ -3993,25 +3969,25 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38" t="n">
+      <c r="G26" s="36"/>
+      <c r="H26" s="37" t="n">
         <f aca="false">SUM(J26:S26)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="38" t="n">
+      <c r="I26" s="37" t="n">
         <f aca="false">G26-H26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3"/>
@@ -4019,25 +3995,25 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38" t="n">
+      <c r="G27" s="36"/>
+      <c r="H27" s="37" t="n">
         <f aca="false">SUM(J27:S27)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="38" t="n">
+      <c r="I27" s="37" t="n">
         <f aca="false">G27-H27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3"/>
@@ -4045,25 +4021,25 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38" t="n">
+      <c r="G28" s="36"/>
+      <c r="H28" s="37" t="n">
         <f aca="false">SUM(J28:S28)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="38" t="n">
+      <c r="I28" s="37" t="n">
         <f aca="false">G28-H28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3"/>
@@ -4071,25 +4047,25 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38" t="n">
+      <c r="G29" s="36"/>
+      <c r="H29" s="37" t="n">
         <f aca="false">SUM(J29:S29)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="38" t="n">
+      <c r="I29" s="37" t="n">
         <f aca="false">G29-H29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3"/>
@@ -4097,25 +4073,25 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38" t="n">
+      <c r="G30" s="36"/>
+      <c r="H30" s="37" t="n">
         <f aca="false">SUM(J30:S30)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="38" t="n">
+      <c r="I30" s="37" t="n">
         <f aca="false">G30-H30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3"/>
@@ -4123,25 +4099,25 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38" t="n">
+      <c r="G31" s="36"/>
+      <c r="H31" s="37" t="n">
         <f aca="false">SUM(J31:S31)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="38" t="n">
+      <c r="I31" s="37" t="n">
         <f aca="false">G31-H31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3"/>
@@ -4149,25 +4125,25 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38" t="n">
+      <c r="G32" s="36"/>
+      <c r="H32" s="37" t="n">
         <f aca="false">SUM(J32:S32)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="38" t="n">
+      <c r="I32" s="37" t="n">
         <f aca="false">G32-H32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3"/>
@@ -4175,25 +4151,25 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38" t="n">
+      <c r="G33" s="36"/>
+      <c r="H33" s="37" t="n">
         <f aca="false">SUM(J33:S33)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="38" t="n">
+      <c r="I33" s="37" t="n">
         <f aca="false">G33-H33</f>
         <v>0</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3"/>
@@ -4201,25 +4177,25 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38" t="n">
+      <c r="G34" s="36"/>
+      <c r="H34" s="37" t="n">
         <f aca="false">SUM(J34:S34)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="38" t="n">
+      <c r="I34" s="37" t="n">
         <f aca="false">G34-H34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3"/>
@@ -4227,25 +4203,25 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38" t="n">
+      <c r="G35" s="36"/>
+      <c r="H35" s="37" t="n">
         <f aca="false">SUM(J35:S35)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="38" t="n">
+      <c r="I35" s="37" t="n">
         <f aca="false">G35-H35</f>
         <v>0</v>
       </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3"/>
@@ -4253,236 +4229,236 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38" t="n">
+      <c r="G36" s="36"/>
+      <c r="H36" s="37" t="n">
         <f aca="false">SUM(J36:S36)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="38" t="n">
+      <c r="I36" s="37" t="n">
         <f aca="false">G36-H36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="43" t="n">
+      <c r="G38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,G7:G35)</f>
         <v>32</v>
       </c>
-      <c r="H38" s="43" t="n">
+      <c r="H38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,H7:H35)</f>
         <v>25</v>
       </c>
-      <c r="I38" s="43" t="n">
+      <c r="I38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,I7:I35)</f>
         <v>7</v>
       </c>
-      <c r="J38" s="43" t="n">
+      <c r="J38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,J7:J35)</f>
         <v>4</v>
       </c>
-      <c r="K38" s="43" t="n">
+      <c r="K38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,K7:K35)</f>
         <v>4</v>
       </c>
-      <c r="L38" s="43" t="n">
+      <c r="L38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,L7:L35)</f>
         <v>3</v>
       </c>
-      <c r="M38" s="43" t="n">
+      <c r="M38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,M7:M35)</f>
         <v>3</v>
       </c>
-      <c r="N38" s="43" t="n">
+      <c r="N38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,N7:N35)</f>
         <v>2</v>
       </c>
-      <c r="O38" s="43" t="n">
+      <c r="O38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,O7:O35)</f>
         <v>2</v>
       </c>
-      <c r="P38" s="43" t="n">
+      <c r="P38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,P7:P35)</f>
         <v>2</v>
       </c>
-      <c r="Q38" s="43" t="n">
+      <c r="Q38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,Q7:Q35)</f>
         <v>2</v>
       </c>
-      <c r="R38" s="43" t="n">
+      <c r="R38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,R7:R35)</f>
         <v>1</v>
       </c>
-      <c r="S38" s="43" t="n">
+      <c r="S38" s="42" t="n">
         <f aca="false">SUBTOTAL(9,S7:S35)</f>
         <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43" t="n">
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42" t="n">
         <f aca="false">G38-J38</f>
         <v>28</v>
       </c>
-      <c r="K39" s="43" t="n">
+      <c r="K39" s="42" t="n">
         <f aca="false">J39-K38</f>
         <v>24</v>
       </c>
-      <c r="L39" s="43" t="n">
+      <c r="L39" s="42" t="n">
         <f aca="false">K39-L38</f>
         <v>21</v>
       </c>
-      <c r="M39" s="43" t="n">
+      <c r="M39" s="42" t="n">
         <f aca="false">L39-M38</f>
         <v>18</v>
       </c>
-      <c r="N39" s="43" t="n">
+      <c r="N39" s="42" t="n">
         <f aca="false">M39-N38</f>
         <v>16</v>
       </c>
-      <c r="O39" s="43" t="n">
+      <c r="O39" s="42" t="n">
         <f aca="false">N39-O38</f>
         <v>14</v>
       </c>
-      <c r="P39" s="43" t="n">
+      <c r="P39" s="42" t="n">
         <f aca="false">O39-P38</f>
         <v>12</v>
       </c>
-      <c r="Q39" s="43" t="n">
+      <c r="Q39" s="42" t="n">
         <f aca="false">P39-Q38</f>
         <v>10</v>
       </c>
-      <c r="R39" s="43" t="n">
+      <c r="R39" s="42" t="n">
         <f aca="false">Q39-R38</f>
         <v>9</v>
       </c>
-      <c r="S39" s="43" t="n">
+      <c r="S39" s="42" t="n">
         <f aca="false">R39-S38</f>
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43" t="n">
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42" t="n">
         <f aca="false">J38</f>
         <v>4</v>
       </c>
-      <c r="K40" s="43" t="n">
+      <c r="K40" s="42" t="n">
         <f aca="false">J40+K38</f>
         <v>8</v>
       </c>
-      <c r="L40" s="43" t="n">
+      <c r="L40" s="42" t="n">
         <f aca="false">K40+L38</f>
         <v>11</v>
       </c>
-      <c r="M40" s="43" t="n">
+      <c r="M40" s="42" t="n">
         <f aca="false">L40+M38</f>
         <v>14</v>
       </c>
-      <c r="N40" s="43" t="n">
+      <c r="N40" s="42" t="n">
         <f aca="false">M40+N38</f>
         <v>16</v>
       </c>
-      <c r="O40" s="43" t="n">
+      <c r="O40" s="42" t="n">
         <f aca="false">N40+O38</f>
         <v>18</v>
       </c>
-      <c r="P40" s="43" t="n">
+      <c r="P40" s="42" t="n">
         <f aca="false">O40+P38</f>
         <v>20</v>
       </c>
-      <c r="Q40" s="43" t="n">
+      <c r="Q40" s="42" t="n">
         <f aca="false">P40+Q38</f>
         <v>22</v>
       </c>
-      <c r="R40" s="43" t="n">
+      <c r="R40" s="42" t="n">
         <f aca="false">Q40+R38</f>
         <v>23</v>
       </c>
-      <c r="S40" s="43" t="n">
+      <c r="S40" s="42" t="n">
         <f aca="false">R40+S38</f>
         <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="B7:S7"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4503,19 +4479,19 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="49.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="46.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="46.7"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,8 +5021,8 @@
   </sheetData>
   <autoFilter ref="B7:L7"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5067,7 +5043,7 @@
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14"/>
@@ -5369,8 +5345,8 @@
   </sheetData>
   <autoFilter ref="B7:H7"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5390,7 +5366,7 @@
       <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.71"/>
   </cols>
@@ -5401,22 +5377,22 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="K30" s="44" t="s">
+      <c r="K30" s="43" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5436,12 +5412,12 @@
       <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="53.29"/>
   </cols>
   <sheetData>
@@ -5459,16 +5435,16 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5476,11 +5452,11 @@
       <c r="B9" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>146</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="46"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="26"/>
@@ -5625,8 +5601,8 @@
     <hyperlink ref="C9" r:id="rId1" display="https://www.scrumalliance.org/community/articles/2007/march/glossary-of-scrum-terms"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
